--- a/data/GiffordGunLawStrength.xlsx
+++ b/data/GiffordGunLawStrength.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\missm\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\missm\source\repos\MichelleRobertsBU\Gun-Law-Effects-on-Homicides-by-Firearms\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6876FCA-1862-4AE4-B81C-73FDBE3E428C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAB9994-600C-47AF-8CA7-F35A52CD4B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4704" yWindow="960" windowWidth="15924" windowHeight="10992" xr2:uid="{BDB16AB1-F335-404F-8B22-D44F29487647}"/>
+    <workbookView xWindow="10404" yWindow="720" windowWidth="12012" windowHeight="10992" xr2:uid="{BDB16AB1-F335-404F-8B22-D44F29487647}"/>
   </bookViews>
   <sheets>
     <sheet name="Gifford Gun Law Strength" sheetId="1" r:id="rId1"/>
@@ -38,51 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
-    <r>
-      <t>Gun Law Strength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>(Ranked)</t>
-    </r>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
-    <r>
-      <t>Gun Death Rate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>(Ranked)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Gun Death Rate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>(per 100K)</t>
-    </r>
-  </si>
-  <si>
     <t>California</t>
   </si>
   <si>
@@ -264,13 +222,25 @@
   </si>
   <si>
     <t>SHARE</t>
+  </si>
+  <si>
+    <t>Gun_Law_Rank</t>
+  </si>
+  <si>
+    <t>State_list</t>
+  </si>
+  <si>
+    <t>Death_Rank</t>
+  </si>
+  <si>
+    <t>Rate_per_100K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,11 +253,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Ringside Condensed A"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
     </font>
     <font>
       <b/>
@@ -353,26 +318,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -692,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1072E3-0D20-4D35-987C-014E6EC8FBB8}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -707,19 +672,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.399999999999999">
@@ -727,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" s="5">
         <v>44</v>
@@ -744,10 +709,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5">
         <v>48</v>
@@ -761,10 +726,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5">
         <v>45</v>
@@ -778,10 +743,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5">
         <v>50</v>
@@ -795,10 +760,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5">
         <v>49</v>
@@ -812,10 +777,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5">
         <v>46</v>
@@ -829,10 +794,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5">
         <v>33</v>
@@ -846,10 +811,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" s="5">
         <v>27</v>
@@ -863,10 +828,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5">
         <v>47</v>
@@ -880,10 +845,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5">
         <v>39</v>
@@ -897,10 +862,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D12" s="5">
         <v>34</v>
@@ -914,10 +879,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5">
         <v>25</v>
@@ -931,10 +896,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D14" s="5">
         <v>22</v>
@@ -948,10 +913,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5">
         <v>31</v>
@@ -965,10 +930,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D16" s="5">
         <v>35</v>
@@ -982,10 +947,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5">
         <v>18</v>
@@ -999,10 +964,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D18" s="5">
         <v>43</v>
@@ -1016,10 +981,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D19" s="5">
         <v>24</v>
@@ -1033,10 +998,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D20" s="5">
         <v>7</v>
@@ -1050,10 +1015,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D21" s="5">
         <v>41</v>
@@ -1067,10 +1032,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D22" s="5">
         <v>21</v>
@@ -1084,10 +1049,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D23" s="5">
         <v>37</v>
@@ -1101,10 +1066,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D24" s="5">
         <v>36</v>
@@ -1118,10 +1083,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D25" s="5">
         <v>29</v>
@@ -1135,10 +1100,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D26" s="5">
         <v>23</v>
@@ -1152,10 +1117,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D27" s="5">
         <v>17</v>
@@ -1169,10 +1134,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D28" s="5">
         <v>42</v>
@@ -1186,10 +1151,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D29" s="5">
         <v>15</v>
@@ -1203,10 +1168,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D30" s="5">
         <v>40</v>
@@ -1220,10 +1185,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D31" s="5">
         <v>38</v>
@@ -1237,10 +1202,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D32" s="5">
         <v>5</v>
@@ -1254,10 +1219,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D33" s="5">
         <v>9</v>
@@ -1271,10 +1236,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D34" s="5">
         <v>30</v>
@@ -1288,10 +1253,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D35" s="5">
         <v>2</v>
@@ -1305,10 +1270,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D36" s="5">
         <v>14</v>
@@ -1322,10 +1287,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D37" s="5">
         <v>26</v>
@@ -1339,10 +1304,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D38" s="5">
         <v>12</v>
@@ -1356,10 +1321,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D39" s="5">
         <v>10</v>
@@ -1373,10 +1338,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D40" s="5">
         <v>28</v>
@@ -1390,10 +1355,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D41" s="5">
         <v>11</v>
@@ -1407,10 +1372,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D42" s="5">
         <v>6</v>
@@ -1424,10 +1389,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D43" s="5">
         <v>20</v>
@@ -1441,10 +1406,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D44" s="5">
         <v>13</v>
@@ -1458,10 +1423,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D45" s="5">
         <v>32</v>
@@ -1475,10 +1440,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D46" s="5">
         <v>19</v>
@@ -1492,10 +1457,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D47" s="5">
         <v>1</v>
@@ -1509,10 +1474,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D48" s="5">
         <v>4</v>
@@ -1526,10 +1491,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D49" s="5">
         <v>16</v>
@@ -1543,10 +1508,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D50" s="5">
         <v>3</v>
@@ -1560,10 +1525,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D51" s="5">
         <v>8</v>
@@ -1574,7 +1539,7 @@
     </row>
     <row r="52" spans="1:5" ht="17.399999999999999">
       <c r="A52" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>

--- a/data/GiffordGunLawStrength.xlsx
+++ b/data/GiffordGunLawStrength.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\missm\source\repos\MichelleRobertsBU\Gun-Law-Effects-on-Homicides-by-Firearms\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAB9994-600C-47AF-8CA7-F35A52CD4B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4F2AFF-E6EA-49D5-9340-CDF13931711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10404" yWindow="720" windowWidth="12012" windowHeight="10992" xr2:uid="{BDB16AB1-F335-404F-8B22-D44F29487647}"/>
   </bookViews>
@@ -233,7 +233,7 @@
     <t>Death_Rank</t>
   </si>
   <si>
-    <t>Rate_per_100K</t>
+    <t>Rate_per_Hundred</t>
   </si>
 </sst>
 </file>
@@ -658,7 +658,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
